--- a/式样书.xlsx
+++ b/式样书.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\own\Code\JapaneseTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\own\Code\GitHubWord\JapaneseTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275813AA-79D8-46AF-BE5A-E1BBD1AF8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC45ED6-3A6C-453D-8494-586598A6DD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26940" yWindow="-5250" windowWidth="22485" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,13 +383,16 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -397,7 +407,7 @@
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
